--- a/Result/Orbit/Manufacturing/AUS.xlsx
+++ b/Result/Orbit/Manufacturing/AUS.xlsx
@@ -463,7 +463,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>13.79344438155173</v>
+        <v>13.8217954762353</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>12.5698102029463</v>
+        <v>12.65511285914509</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>12.58015887642892</v>
+        <v>11.9092976053967</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>12.87318388719052</v>
+        <v>12.4358317764525</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>13.20501995208072</v>
+        <v>12.8876936713298</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>13.12367686560688</v>
+        <v>13.31270729037165</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7424163318427</v>
+        <v>13.18046303206365</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>12.30366539207597</v>
+        <v>12.57051380408696</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>12.47074767085228</v>
+        <v>11.98642772165442</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>11.95283158647435</v>
+        <v>12.42974769047772</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>11.57011554701219</v>
+        <v>11.78744756876637</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>10.99301372481012</v>
+        <v>11.30747371088082</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>10.55534894431952</v>
+        <v>10.65124511820589</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>10.86216994180758</v>
+        <v>10.16327879418423</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>10.88215706600108</v>
+        <v>10.7643988500107</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>10.33486230097914</v>
+        <v>10.8873329253904</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>9.892071199355792</v>
+        <v>10.12278270526285</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>9.290666490144647</v>
+        <v>9.643560415055804</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>9.202198922938425</v>
+        <v>8.936634581372568</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>8.453526785289274</v>
+        <v>8.939163438967155</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>7.997034212477491</v>
+        <v>8.192892910573843</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>7.368513108841397</v>
+        <v>7.605033694817447</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>7.05045459273345</v>
+        <v>6.964027690000788</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>6.608333214010963</v>
+        <v>6.652386707303762</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>6.368634633947076</v>
+        <v>6.19956267566149</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>6.299997474136078</v>
+        <v>6.185409456801113</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>6.085499329208853</v>
+        <v>6.221729647046814</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -774,50 +774,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>6.085499329831999</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>5.935990142505944</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.346109314478357</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.709900788606834</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>6.085499329831999</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>5.837831432232687</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.852425125355938</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.014039817963904</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>6.085499329831999</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>5.66397875658937</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.18309538337873</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.181027014139095</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>6.085499329831999</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>5.590294068690877</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.729888641033437</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.345705525196619</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>6.085499329831999</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>5.594352964305472</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.54086693146596</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.782681359508524</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -865,7 +885,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>13.79344438155173</v>
+        <v>13.79398673232246</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>12.5698102029463</v>
+        <v>12.65022828787379</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>12.58015887642892</v>
+        <v>11.85692052880101</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>12.87318388719052</v>
+        <v>12.38458836391465</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>13.20501995208072</v>
+        <v>12.92377686588377</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>13.12367686560688</v>
+        <v>13.34609817223093</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7424163318427</v>
+        <v>13.16798713534425</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>12.30366539207597</v>
+        <v>12.50014283738665</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>12.47074767085228</v>
+        <v>12.00263416568129</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>11.95283158647435</v>
+        <v>12.42327800533432</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>11.57011554701219</v>
+        <v>11.71055218167681</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>10.99301372481012</v>
+        <v>11.23783250275067</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>10.55534894431952</v>
+        <v>10.71994901285506</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>10.86216994180758</v>
+        <v>10.22392274739229</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>10.88215706600108</v>
+        <v>10.83958233908264</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>10.33486230097914</v>
+        <v>10.87536913009718</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>9.892071199355792</v>
+        <v>10.14049988234612</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>9.290666490144647</v>
+        <v>9.635469425839659</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>9.202198922938425</v>
+        <v>8.9026678590795</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>8.453526785289274</v>
+        <v>9.016825039290502</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>7.997034212477491</v>
+        <v>8.135979874159879</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>7.368513108841397</v>
+        <v>7.664071066661901</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>7.05045459273345</v>
+        <v>6.863057939615542</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>6.608333214010963</v>
+        <v>6.707320365061021</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>6.368634633947076</v>
+        <v>6.308178938189082</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>6.299997474136078</v>
+        <v>6.17989673911549</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>6.085499329208853</v>
+        <v>6.216443173435242</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>2017</v>
       </c>
       <c r="B29" t="n">
-        <v>5.798737462442747</v>
+        <v>6.014568256485133</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>5.777271824567839</v>
+        <v>5.674432213000206</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>5.615118064276127</v>
+        <v>5.725116391371664</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>5.651114209643661</v>
+        <v>5.46240831628496</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>5.565623775405053</v>
+        <v>5.628073028196507</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1226,50 +1246,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>5.56562377559197</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>5.536225700534589</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.886413711110808</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.998076858914763</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>5.56562377559197</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>5.558479073915955</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.275658193947625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.441651345226422</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>5.56562377559197</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>5.568082438595221</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.585271807906006</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.659618820714586</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>5.56562377559197</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>5.391577681025536</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.149878155679334</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.532044958229591</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>5.56562377559197</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>5.424568632477516</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.003148252190251</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.191204511716146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
